--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_85_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_85_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.5169569334149133, 2.294916423182896]</t>
+          <t>[1.5230400661579897, 2.2888332904398196]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>7.853717676198357e-13</v>
+        <v>4.800604358479177e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>7.853717676198357e-13</v>
+        <v>4.800604358479177e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0.9119738433844242</v>
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.12143603687831162, 0.5199083970572662]</t>
+          <t>[0.1216485782161274, 0.5196958557194504]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.002239637791017213</v>
+        <v>0.002217739868701551</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002239637791017213</v>
+        <v>0.002217739868701551</v>
       </c>
       <c r="W2" t="n">
         <v>19.12310310310342</v>
